--- a/grupos/6BLCM - Estadisticos 2020.xlsx
+++ b/grupos/6BLCM - Estadisticos 2020.xlsx
@@ -3257,6 +3257,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3693,7 +3694,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4321,6 +4323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6BLCM - Estadisticos 2020.xlsx
+++ b/grupos/6BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -212,6 +212,18 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ARANA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -230,12 +242,27 @@
     <t>GUERRA</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
@@ -245,12 +272,39 @@
     <t>ROMERO</t>
   </si>
   <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>VALENZUELA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
     <t>NIEVES</t>
   </si>
   <si>
@@ -263,24 +317,75 @@
     <t>BRINGAS</t>
   </si>
   <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>APALE</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
     <t>BERNAL</t>
   </si>
   <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
     <t>LEON</t>
   </si>
   <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
     <t>CABRERA</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>JOALY</t>
+  </si>
+  <si>
+    <t>DIANA VIANEY</t>
+  </si>
+  <si>
+    <t>GABRIELA ANGELICA</t>
+  </si>
+  <si>
+    <t>ALMA</t>
+  </si>
+  <si>
     <t>TAURINO JUNIORS</t>
   </si>
   <si>
@@ -290,24 +395,51 @@
     <t>LEZLYE PATRICIA</t>
   </si>
   <si>
+    <t>DENISSE GUADALUPE</t>
+  </si>
+  <si>
     <t>MIRANDA DARLLENECK</t>
   </si>
   <si>
     <t>ANDREA</t>
   </si>
   <si>
+    <t>PAOLA BETSABET</t>
+  </si>
+  <si>
     <t>JOCELYN</t>
   </si>
   <si>
+    <t>DIANA</t>
+  </si>
+  <si>
     <t>MARIA LARET</t>
   </si>
   <si>
     <t>ELENA JUNETH</t>
   </si>
   <si>
+    <t>SILVIA ESMERALDA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
     <t>DIEGO OLLIN</t>
   </si>
   <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>BRISEIDA</t>
+  </si>
+  <si>
     <t>ESTEFANIA ADRIANA</t>
   </si>
   <si>
@@ -317,163 +449,31 @@
     <t>ANGEL DANIEL</t>
   </si>
   <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>JOSUE ADARAYAN</t>
+  </si>
+  <si>
     <t>YADIRA</t>
   </si>
   <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
     <t>DAFNE YVETTE</t>
-  </si>
-  <si>
-    <t>ARANA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>VALENZUELA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>OLMEDO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>JOALY</t>
-  </si>
-  <si>
-    <t>DIANA VIANEY</t>
-  </si>
-  <si>
-    <t>GABRIELA ANGELICA</t>
-  </si>
-  <si>
-    <t>ALMA</t>
-  </si>
-  <si>
-    <t>DENISSE GUADALUPE</t>
-  </si>
-  <si>
-    <t>PAOLA BETSABET</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
-    <t>SILVIA ESMERALDA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>ROCIO TAMARA</t>
-  </si>
-  <si>
-    <t>BRISEIDA</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>JOSUE ADARAYAN</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
   </si>
   <si>
     <t>QUETZALI</t>
@@ -3251,7 +3251,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3283,36 +3283,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920318</v>
+        <v>18330051920315</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920319</v>
+        <v>18330051920315</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -3323,196 +3323,196 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920320</v>
+        <v>18330051920315</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920320</v>
+        <v>18330051920315</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920328</v>
+        <v>18330051920315</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920328</v>
+        <v>18330051920315</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920331</v>
+        <v>18330051920314</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920329</v>
+        <v>18330051920314</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920329</v>
+        <v>18330051920314</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920424</v>
+        <v>18330051920314</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920425</v>
+        <v>18330051920314</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920336</v>
+        <v>18330051920314</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3523,56 +3523,56 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920336</v>
+        <v>18330051920317</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920341</v>
+        <v>18330051920317</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920341</v>
+        <v>18330051920317</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -3583,16 +3583,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920342</v>
+        <v>18330051920317</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -3603,81 +3603,3881 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920343</v>
+        <v>18330051920317</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920343</v>
+        <v>18330051920317</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920346</v>
+        <v>18330051920316</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
+        <v>18330051920316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>18330051920316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>18330051920316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>18330051920316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>18330051920316</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>18330051920318</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>18330051920318</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>18330051920318</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>18330051920318</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>18330051920318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>18330051920318</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>18330051920319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>18330051920319</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>18330051920319</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>18330051920319</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>18330051920319</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>18330051920319</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>18330051920320</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>18330051920320</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>18330051920320</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>18330051920320</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>18330051920320</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>18330051920320</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>18330051920327</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>18330051920327</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>18330051920327</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>18330051920327</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>18330051920327</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>18330051920327</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>18330051920328</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18330051920328</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>18330051920328</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>18330051920328</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>18330051920328</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>18330051920328</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330051920331</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330051920331</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920331</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920331</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920331</v>
+      </c>
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920429</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920429</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920429</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920429</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920429</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920429</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920329</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920329</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920329</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920329</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920329</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920329</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920332</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920332</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920332</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920332</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18330051920332</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920332</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920424</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>101</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>18330051920424</v>
+      </c>
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>18330051920424</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920424</v>
+      </c>
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920424</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920424</v>
+      </c>
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920425</v>
+      </c>
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920425</v>
+      </c>
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920425</v>
+      </c>
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920425</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920425</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920425</v>
+      </c>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920333</v>
+      </c>
+      <c r="B92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920333</v>
+      </c>
+      <c r="B93" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920333</v>
+      </c>
+      <c r="B94" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920333</v>
+      </c>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920333</v>
+      </c>
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920333</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920334</v>
+      </c>
+      <c r="B98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920334</v>
+      </c>
+      <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920334</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920334</v>
+      </c>
+      <c r="B101" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920334</v>
+      </c>
+      <c r="B102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920334</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920336</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920336</v>
+      </c>
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920336</v>
+      </c>
+      <c r="B106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920336</v>
+      </c>
+      <c r="B107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920336</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920336</v>
+      </c>
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>18330051920337</v>
+      </c>
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>18330051920337</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>18330051920337</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>18330051920337</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920337</v>
+      </c>
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920337</v>
+      </c>
+      <c r="B115" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920335</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>18330051920335</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>18330051920335</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>18330051920335</v>
+      </c>
+      <c r="B119" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>18330051920335</v>
+      </c>
+      <c r="B120" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>18330051920335</v>
+      </c>
+      <c r="B121" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" t="s">
+        <v>105</v>
+      </c>
+      <c r="D121" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>18330051920339</v>
+      </c>
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>18330051920339</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>18330051920339</v>
+      </c>
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>18330051920339</v>
+      </c>
+      <c r="B125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" t="s">
+        <v>106</v>
+      </c>
+      <c r="D125" t="s">
+        <v>138</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>18330051920339</v>
+      </c>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D126" t="s">
+        <v>138</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>18330051920339</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>18330051920340</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>18330051920340</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>18330051920340</v>
+      </c>
+      <c r="B130" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>18330051920340</v>
+      </c>
+      <c r="B131" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" t="s">
+        <v>107</v>
+      </c>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>18330051920340</v>
+      </c>
+      <c r="B132" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>18330051920340</v>
+      </c>
+      <c r="B133" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" t="s">
+        <v>107</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>18330051920341</v>
+      </c>
+      <c r="B134" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>18330051920341</v>
+      </c>
+      <c r="B135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" t="s">
+        <v>71</v>
+      </c>
+      <c r="D135" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>18330051920341</v>
+      </c>
+      <c r="B136" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" t="s">
+        <v>71</v>
+      </c>
+      <c r="D136" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>18330051920341</v>
+      </c>
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D137" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>18330051920341</v>
+      </c>
+      <c r="B138" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>18330051920341</v>
+      </c>
+      <c r="B139" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" t="s">
+        <v>71</v>
+      </c>
+      <c r="D139" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>18330051920342</v>
+      </c>
+      <c r="B140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C140" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>18330051920342</v>
+      </c>
+      <c r="B141" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" t="s">
+        <v>141</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>18330051920342</v>
+      </c>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>18330051920342</v>
+      </c>
+      <c r="B143" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" t="s">
+        <v>141</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>18330051920342</v>
+      </c>
+      <c r="B144" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" t="s">
+        <v>141</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>18330051920342</v>
+      </c>
+      <c r="B145" t="s">
+        <v>82</v>
+      </c>
+      <c r="C145" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" t="s">
+        <v>141</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>18330051920343</v>
+      </c>
+      <c r="B146" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" t="s">
+        <v>109</v>
+      </c>
+      <c r="D146" t="s">
+        <v>142</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>18330051920343</v>
+      </c>
+      <c r="B147" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" t="s">
+        <v>109</v>
+      </c>
+      <c r="D147" t="s">
+        <v>142</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>18330051920343</v>
+      </c>
+      <c r="B148" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" t="s">
+        <v>109</v>
+      </c>
+      <c r="D148" t="s">
+        <v>142</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>18330051920343</v>
+      </c>
+      <c r="B149" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>18330051920343</v>
+      </c>
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>18330051920343</v>
+      </c>
+      <c r="B151" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" t="s">
+        <v>109</v>
+      </c>
+      <c r="D151" t="s">
+        <v>142</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>18330051920344</v>
+      </c>
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D152" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>18330051920344</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>18330051920344</v>
+      </c>
+      <c r="B154" t="s">
+        <v>84</v>
+      </c>
+      <c r="C154" t="s">
+        <v>86</v>
+      </c>
+      <c r="D154" t="s">
+        <v>143</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>18330051920344</v>
+      </c>
+      <c r="B155" t="s">
+        <v>84</v>
+      </c>
+      <c r="C155" t="s">
+        <v>86</v>
+      </c>
+      <c r="D155" t="s">
+        <v>143</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>18330051920344</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>18330051920344</v>
+      </c>
+      <c r="B157" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" t="s">
+        <v>86</v>
+      </c>
+      <c r="D157" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>18330051920426</v>
+      </c>
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" t="s">
+        <v>110</v>
+      </c>
+      <c r="D158" t="s">
+        <v>144</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>18330051920426</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" t="s">
+        <v>110</v>
+      </c>
+      <c r="D159" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>18330051920426</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" t="s">
+        <v>144</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>18330051920426</v>
+      </c>
+      <c r="B161" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" t="s">
+        <v>110</v>
+      </c>
+      <c r="D161" t="s">
+        <v>144</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>18330051920426</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="s">
+        <v>110</v>
+      </c>
+      <c r="D162" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>18330051920426</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="s">
+        <v>110</v>
+      </c>
+      <c r="D163" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>18330051920346</v>
+      </c>
+      <c r="B164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" t="s">
+        <v>111</v>
+      </c>
+      <c r="D164" t="s">
+        <v>145</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>18330051920346</v>
+      </c>
+      <c r="B165" t="s">
+        <v>86</v>
+      </c>
+      <c r="C165" t="s">
+        <v>111</v>
+      </c>
+      <c r="D165" t="s">
+        <v>145</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>18330051920346</v>
+      </c>
+      <c r="B166" t="s">
+        <v>86</v>
+      </c>
+      <c r="C166" t="s">
+        <v>111</v>
+      </c>
+      <c r="D166" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>18330051920346</v>
+      </c>
+      <c r="B167" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" t="s">
+        <v>111</v>
+      </c>
+      <c r="D167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>18330051920346</v>
+      </c>
+      <c r="B168" t="s">
+        <v>86</v>
+      </c>
+      <c r="C168" t="s">
+        <v>111</v>
+      </c>
+      <c r="D168" t="s">
+        <v>145</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>18330051920346</v>
+      </c>
+      <c r="B169" t="s">
+        <v>86</v>
+      </c>
+      <c r="C169" t="s">
+        <v>111</v>
+      </c>
+      <c r="D169" t="s">
+        <v>145</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>18330051920347</v>
+      </c>
+      <c r="B170" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" t="s">
+        <v>146</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>18330051920347</v>
+      </c>
+      <c r="B171" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" t="s">
+        <v>146</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>18330051920347</v>
+      </c>
+      <c r="B172" t="s">
+        <v>87</v>
+      </c>
+      <c r="C172" t="s">
+        <v>112</v>
+      </c>
+      <c r="D172" t="s">
+        <v>146</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>18330051920347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>87</v>
+      </c>
+      <c r="C173" t="s">
+        <v>112</v>
+      </c>
+      <c r="D173" t="s">
+        <v>146</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>18330051920347</v>
+      </c>
+      <c r="B174" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" t="s">
+        <v>146</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>18330051920347</v>
+      </c>
+      <c r="B175" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" t="s">
+        <v>146</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>18330051920350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>88</v>
+      </c>
+      <c r="C176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D176" t="s">
+        <v>147</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>18330051920350</v>
+      </c>
+      <c r="B177" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" t="s">
+        <v>113</v>
+      </c>
+      <c r="D177" t="s">
+        <v>147</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>18330051920350</v>
+      </c>
+      <c r="B178" t="s">
+        <v>88</v>
+      </c>
+      <c r="C178" t="s">
+        <v>113</v>
+      </c>
+      <c r="D178" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>18330051920350</v>
+      </c>
+      <c r="B179" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" t="s">
+        <v>113</v>
+      </c>
+      <c r="D179" t="s">
+        <v>147</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>18330051920350</v>
+      </c>
+      <c r="B180" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" t="s">
+        <v>113</v>
+      </c>
+      <c r="D180" t="s">
+        <v>147</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>18330051920350</v>
+      </c>
+      <c r="B181" t="s">
+        <v>88</v>
+      </c>
+      <c r="C181" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>18330051920348</v>
+      </c>
+      <c r="B182" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s">
+        <v>75</v>
+      </c>
+      <c r="D182" t="s">
+        <v>148</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>18330051920348</v>
+      </c>
+      <c r="B183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" t="s">
+        <v>148</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>18330051920348</v>
+      </c>
+      <c r="B184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" t="s">
+        <v>75</v>
+      </c>
+      <c r="D184" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>18330051920348</v>
+      </c>
+      <c r="B185" t="s">
+        <v>89</v>
+      </c>
+      <c r="C185" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" t="s">
+        <v>148</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+      <c r="F185" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>18330051920348</v>
+      </c>
+      <c r="B186" t="s">
+        <v>89</v>
+      </c>
+      <c r="C186" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" t="s">
+        <v>148</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>18330051920348</v>
+      </c>
+      <c r="B187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" t="s">
+        <v>75</v>
+      </c>
+      <c r="D187" t="s">
+        <v>148</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>18330051920349</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>114</v>
+      </c>
+      <c r="D188" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>18330051920349</v>
+      </c>
+      <c r="B189" t="s">
+        <v>90</v>
+      </c>
+      <c r="C189" t="s">
+        <v>114</v>
+      </c>
+      <c r="D189" t="s">
+        <v>149</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>18330051920349</v>
+      </c>
+      <c r="B190" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" t="s">
+        <v>114</v>
+      </c>
+      <c r="D190" t="s">
+        <v>149</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>18330051920349</v>
+      </c>
+      <c r="B191" t="s">
+        <v>90</v>
+      </c>
+      <c r="C191" t="s">
+        <v>114</v>
+      </c>
+      <c r="D191" t="s">
+        <v>149</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>18330051920349</v>
+      </c>
+      <c r="B192" t="s">
+        <v>90</v>
+      </c>
+      <c r="C192" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" t="s">
+        <v>149</v>
+      </c>
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>18330051920349</v>
+      </c>
+      <c r="B193" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193" t="s">
+        <v>114</v>
+      </c>
+      <c r="D193" t="s">
+        <v>149</v>
+      </c>
+      <c r="E193" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>18330051920427</v>
+      </c>
+      <c r="B194" t="s">
+        <v>91</v>
+      </c>
+      <c r="C194" t="s">
+        <v>115</v>
+      </c>
+      <c r="D194" t="s">
+        <v>150</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>18330051920427</v>
+      </c>
+      <c r="B195" t="s">
+        <v>91</v>
+      </c>
+      <c r="C195" t="s">
+        <v>115</v>
+      </c>
+      <c r="D195" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>18330051920427</v>
+      </c>
+      <c r="B196" t="s">
+        <v>91</v>
+      </c>
+      <c r="C196" t="s">
+        <v>115</v>
+      </c>
+      <c r="D196" t="s">
+        <v>150</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>18330051920427</v>
+      </c>
+      <c r="B197" t="s">
+        <v>91</v>
+      </c>
+      <c r="C197" t="s">
+        <v>115</v>
+      </c>
+      <c r="D197" t="s">
+        <v>150</v>
+      </c>
+      <c r="E197" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>18330051920427</v>
+      </c>
+      <c r="B198" t="s">
+        <v>91</v>
+      </c>
+      <c r="C198" t="s">
+        <v>115</v>
+      </c>
+      <c r="D198" t="s">
+        <v>150</v>
+      </c>
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>18330051920427</v>
+      </c>
+      <c r="B199" t="s">
+        <v>91</v>
+      </c>
+      <c r="C199" t="s">
+        <v>115</v>
+      </c>
+      <c r="D199" t="s">
+        <v>150</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
         <v>18330051920428</v>
       </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B200" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" t="s">
+        <v>116</v>
+      </c>
+      <c r="D200" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>18330051920428</v>
+      </c>
+      <c r="B201" t="s">
+        <v>92</v>
+      </c>
+      <c r="C201" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" t="s">
+        <v>151</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>18330051920428</v>
+      </c>
+      <c r="B202" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" t="s">
+        <v>116</v>
+      </c>
+      <c r="D202" t="s">
+        <v>151</v>
+      </c>
+      <c r="E202" t="s">
         <v>6</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F202" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>18330051920428</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" t="s">
+        <v>116</v>
+      </c>
+      <c r="D203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>18330051920428</v>
+      </c>
+      <c r="B204" t="s">
+        <v>92</v>
+      </c>
+      <c r="C204" t="s">
+        <v>116</v>
+      </c>
+      <c r="D204" t="s">
+        <v>151</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>18330051920428</v>
+      </c>
+      <c r="B205" t="s">
+        <v>92</v>
+      </c>
+      <c r="C205" t="s">
+        <v>116</v>
+      </c>
+      <c r="D205" t="s">
+        <v>151</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>18330051920352</v>
+      </c>
+      <c r="B206" t="s">
+        <v>92</v>
+      </c>
+      <c r="C206" t="s">
+        <v>117</v>
+      </c>
+      <c r="D206" t="s">
+        <v>152</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>18330051920352</v>
+      </c>
+      <c r="B207" t="s">
+        <v>92</v>
+      </c>
+      <c r="C207" t="s">
+        <v>117</v>
+      </c>
+      <c r="D207" t="s">
+        <v>152</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>18330051920352</v>
+      </c>
+      <c r="B208" t="s">
+        <v>92</v>
+      </c>
+      <c r="C208" t="s">
+        <v>117</v>
+      </c>
+      <c r="D208" t="s">
+        <v>152</v>
+      </c>
+      <c r="E208" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>18330051920352</v>
+      </c>
+      <c r="B209" t="s">
+        <v>92</v>
+      </c>
+      <c r="C209" t="s">
+        <v>117</v>
+      </c>
+      <c r="D209" t="s">
+        <v>152</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>18330051920352</v>
+      </c>
+      <c r="B210" t="s">
+        <v>92</v>
+      </c>
+      <c r="C210" t="s">
+        <v>117</v>
+      </c>
+      <c r="D210" t="s">
+        <v>152</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>18330051920352</v>
+      </c>
+      <c r="B211" t="s">
+        <v>92</v>
+      </c>
+      <c r="C211" t="s">
+        <v>117</v>
+      </c>
+      <c r="D211" t="s">
+        <v>152</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3720,13 +7520,13 @@
         <v>18330051920320</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -3737,13 +7537,13 @@
         <v>18330051920328</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3754,13 +7554,13 @@
         <v>18330051920329</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3771,13 +7571,13 @@
         <v>18330051920336</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3788,13 +7588,13 @@
         <v>18330051920341</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3805,13 +7605,13 @@
         <v>18330051920343</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3822,13 +7622,13 @@
         <v>18330051920318</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3839,13 +7639,13 @@
         <v>18330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3856,13 +7656,13 @@
         <v>18330051920331</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3873,13 +7673,13 @@
         <v>18330051920424</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3890,13 +7690,13 @@
         <v>18330051920425</v>
       </c>
       <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3907,13 +7707,13 @@
         <v>18330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -3924,13 +7724,13 @@
         <v>18330051920346</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3941,13 +7741,13 @@
         <v>18330051920428</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3958,13 +7758,13 @@
         <v>18330051920315</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3975,13 +7775,13 @@
         <v>18330051920314</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3992,13 +7792,13 @@
         <v>18330051920317</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4009,13 +7809,13 @@
         <v>18330051920316</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4026,13 +7826,13 @@
         <v>18330051920327</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4043,13 +7843,13 @@
         <v>18330051920429</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4060,13 +7860,13 @@
         <v>18330051920332</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4077,13 +7877,13 @@
         <v>18330051920333</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4094,13 +7894,13 @@
         <v>18330051920334</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4111,13 +7911,13 @@
         <v>18330051920337</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4128,13 +7928,13 @@
         <v>18330051920335</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4145,13 +7945,13 @@
         <v>18330051920339</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4162,13 +7962,13 @@
         <v>18330051920340</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4179,13 +7979,13 @@
         <v>18330051920344</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4196,13 +7996,13 @@
         <v>18330051920426</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4213,13 +8013,13 @@
         <v>18330051920347</v>
       </c>
       <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>112</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4230,13 +8030,13 @@
         <v>18330051920350</v>
       </c>
       <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
         <v>113</v>
       </c>
-      <c r="C32" t="s">
-        <v>128</v>
-      </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4247,13 +8047,13 @@
         <v>18330051920348</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4264,13 +8064,13 @@
         <v>18330051920349</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4281,13 +8081,13 @@
         <v>18330051920427</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4298,10 +8098,10 @@
         <v>18330051920352</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>152</v>
@@ -4317,7 +8117,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4350,305 +8150,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920318</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920318</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920424</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920424</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920342</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920342</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920426</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920426</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920347</v>
-      </c>
-      <c r="B12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920428</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920352</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6BLCM - Estadisticos 2020.xlsx
+++ b/grupos/6BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -185,19 +185,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Velasco Sanchez David</t>
+  </si>
+  <si>
     <t>Ochoa Martínez Mayeli</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
-  </si>
-  <si>
     <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
+    <t>Rivera Cruz Ezequiel</t>
+  </si>
+  <si>
     <t>Flores González Ángel</t>
-  </si>
-  <si>
-    <t>Rivera Cruz Ezequiel</t>
   </si>
   <si>
     <t>NC</t>
@@ -957,19 +957,19 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>-1</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -1016,22 +1016,22 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1075,22 +1075,22 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>-1</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1134,22 +1134,22 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>-1</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1193,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1205,10 +1205,10 @@
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1252,10 +1252,10 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1264,7 +1264,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1305,16 +1305,16 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1323,7 +1323,7 @@
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1370,22 +1370,22 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1423,25 +1423,25 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1488,10 +1488,10 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1500,10 +1500,10 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1541,28 +1541,28 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1606,19 +1606,19 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>-1</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1665,22 +1665,22 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>-1</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1724,19 +1724,19 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1783,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>-1</v>
@@ -1795,7 +1795,7 @@
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -1842,19 +1842,19 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -1901,22 +1901,22 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1960,22 +1960,22 @@
         <v>9</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>-1</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2013,25 +2013,25 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>-1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2078,22 +2078,22 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2137,19 +2137,19 @@
         <v>7</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2196,19 +2196,19 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2249,25 +2249,25 @@
         <v>6</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2314,19 +2314,19 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -2367,25 +2367,25 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>5</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -2432,22 +2432,22 @@
         <v>6</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>-1</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2491,22 +2491,22 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>-1</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2550,10 +2550,10 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <v>-1</v>
@@ -2562,7 +2562,7 @@
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -2609,19 +2609,19 @@
         <v>5</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -2668,19 +2668,19 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J33">
         <v>-1</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
         <v>-1</v>
@@ -2727,22 +2727,22 @@
         <v>7</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <v>-1</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2786,22 +2786,22 @@
         <v>10</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J35">
         <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2845,22 +2845,22 @@
         <v>6</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J36">
         <v>-1</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2904,22 +2904,22 @@
         <v>7</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -2963,19 +2963,19 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <v>-1</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3063,30 +3063,27 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>48.57</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>51.43</v>
-      </c>
-      <c r="H2">
-        <v>6.2</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3095,30 +3092,30 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>42.86</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3127,19 +3124,19 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>68.56999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="G4">
-        <v>31.43</v>
+        <v>34.29</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3150,7 +3147,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -3159,19 +3156,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>71.43000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="G5">
-        <v>28.57</v>
+        <v>34.29</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3191,19 +3188,19 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>82.86</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -3214,7 +3211,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -3223,19 +3220,19 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>91.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>8.57</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3251,7 +3248,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3295,7 +3292,7 @@
         <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -3303,199 +3300,199 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920315</v>
+        <v>18330051920314</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920315</v>
+        <v>18330051920314</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920315</v>
+        <v>18330051920317</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920315</v>
+        <v>18330051920316</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920315</v>
+        <v>18330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920314</v>
+        <v>18330051920318</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920314</v>
+        <v>18330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920314</v>
+        <v>18330051920319</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920314</v>
+        <v>18330051920319</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920314</v>
+        <v>18330051920320</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -3503,99 +3500,99 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920314</v>
+        <v>18330051920320</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920317</v>
+        <v>18330051920320</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920317</v>
+        <v>18330051920327</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920317</v>
+        <v>18330051920328</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920317</v>
+        <v>18330051920328</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
@@ -3603,99 +3600,99 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920317</v>
+        <v>18330051920331</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920317</v>
+        <v>18330051920331</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920316</v>
+        <v>18330051920429</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920316</v>
+        <v>18330051920429</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920316</v>
+        <v>18330051920329</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>
@@ -3703,399 +3700,399 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920316</v>
+        <v>18330051920332</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920316</v>
+        <v>18330051920424</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920316</v>
+        <v>18330051920424</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920318</v>
+        <v>18330051920425</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920318</v>
+        <v>18330051920425</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920318</v>
+        <v>18330051920425</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920318</v>
+        <v>18330051920333</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920318</v>
+        <v>18330051920333</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920318</v>
+        <v>18330051920334</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920319</v>
+        <v>18330051920336</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920319</v>
+        <v>18330051920336</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920319</v>
+        <v>18330051920337</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920319</v>
+        <v>18330051920335</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920319</v>
+        <v>18330051920339</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920319</v>
+        <v>18330051920339</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920320</v>
+        <v>18330051920340</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920320</v>
+        <v>18330051920340</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920320</v>
+        <v>18330051920341</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920320</v>
+        <v>18330051920341</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920320</v>
+        <v>18330051920342</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
         <v>55</v>
@@ -4103,219 +4100,219 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920320</v>
+        <v>18330051920342</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920327</v>
+        <v>18330051920343</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920327</v>
+        <v>18330051920343</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920327</v>
+        <v>18330051920344</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920327</v>
+        <v>18330051920426</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920327</v>
+        <v>18330051920346</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920327</v>
+        <v>18330051920346</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920328</v>
+        <v>18330051920346</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920328</v>
+        <v>18330051920347</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920328</v>
+        <v>18330051920347</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>18330051920328</v>
+        <v>18330051920350</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
@@ -4323,19 +4320,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920328</v>
+        <v>18330051920348</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
         <v>56</v>
@@ -4343,99 +4340,99 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920328</v>
+        <v>18330051920348</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920331</v>
+        <v>18330051920349</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920331</v>
+        <v>18330051920427</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920331</v>
+        <v>18330051920428</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>18330051920331</v>
+        <v>18330051920352</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
         <v>55</v>
@@ -4443,3041 +4440,21 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>18330051920331</v>
+        <v>18330051920352</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920331</v>
-      </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920429</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920429</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920429</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920429</v>
-      </c>
-      <c r="B65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920429</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920429</v>
-      </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920329</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920329</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920329</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920329</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920329</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920329</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920332</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920332</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920332</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920332</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920332</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920332</v>
-      </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920424</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920424</v>
-      </c>
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>18330051920424</v>
-      </c>
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920424</v>
-      </c>
-      <c r="B83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920424</v>
-      </c>
-      <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920424</v>
-      </c>
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920425</v>
-      </c>
-      <c r="B86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920425</v>
-      </c>
-      <c r="B87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920425</v>
-      </c>
-      <c r="B88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920425</v>
-      </c>
-      <c r="B89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920425</v>
-      </c>
-      <c r="B90" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920425</v>
-      </c>
-      <c r="B91" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920333</v>
-      </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920333</v>
-      </c>
-      <c r="B93" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920333</v>
-      </c>
-      <c r="B94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920333</v>
-      </c>
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920333</v>
-      </c>
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920333</v>
-      </c>
-      <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920334</v>
-      </c>
-      <c r="B98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" t="s">
-        <v>102</v>
-      </c>
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920334</v>
-      </c>
-      <c r="B99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
-      </c>
-      <c r="D99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920334</v>
-      </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920334</v>
-      </c>
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920334</v>
-      </c>
-      <c r="B102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" t="s">
-        <v>102</v>
-      </c>
-      <c r="D102" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920334</v>
-      </c>
-      <c r="B103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920336</v>
-      </c>
-      <c r="B104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920336</v>
-      </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" t="s">
-        <v>103</v>
-      </c>
-      <c r="D105" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920336</v>
-      </c>
-      <c r="B106" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" t="s">
-        <v>135</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920336</v>
-      </c>
-      <c r="B107" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" t="s">
-        <v>135</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920336</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" t="s">
-        <v>103</v>
-      </c>
-      <c r="D108" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>18330051920336</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>18330051920337</v>
-      </c>
-      <c r="B110" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>18330051920337</v>
-      </c>
-      <c r="B111" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" t="s">
-        <v>104</v>
-      </c>
-      <c r="D111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920337</v>
-      </c>
-      <c r="B112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" t="s">
-        <v>104</v>
-      </c>
-      <c r="D112" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920337</v>
-      </c>
-      <c r="B113" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" t="s">
-        <v>104</v>
-      </c>
-      <c r="D113" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920337</v>
-      </c>
-      <c r="B114" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" t="s">
-        <v>104</v>
-      </c>
-      <c r="D114" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920337</v>
-      </c>
-      <c r="B115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" t="s">
-        <v>104</v>
-      </c>
-      <c r="D115" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920335</v>
-      </c>
-      <c r="B116" t="s">
-        <v>78</v>
-      </c>
-      <c r="C116" t="s">
-        <v>105</v>
-      </c>
-      <c r="D116" t="s">
-        <v>137</v>
-      </c>
-      <c r="E116" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920335</v>
-      </c>
-      <c r="B117" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" t="s">
-        <v>105</v>
-      </c>
-      <c r="D117" t="s">
-        <v>137</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920335</v>
-      </c>
-      <c r="B118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" t="s">
-        <v>105</v>
-      </c>
-      <c r="D118" t="s">
-        <v>137</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>18330051920335</v>
-      </c>
-      <c r="B119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" t="s">
-        <v>137</v>
-      </c>
-      <c r="E119" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>18330051920335</v>
-      </c>
-      <c r="B120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" t="s">
-        <v>105</v>
-      </c>
-      <c r="D120" t="s">
-        <v>137</v>
-      </c>
-      <c r="E120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>18330051920335</v>
-      </c>
-      <c r="B121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" t="s">
-        <v>105</v>
-      </c>
-      <c r="D121" t="s">
-        <v>137</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>18330051920339</v>
-      </c>
-      <c r="B122" t="s">
-        <v>79</v>
-      </c>
-      <c r="C122" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" t="s">
-        <v>138</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>18330051920339</v>
-      </c>
-      <c r="B123" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" t="s">
-        <v>138</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>18330051920339</v>
-      </c>
-      <c r="B124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" t="s">
-        <v>106</v>
-      </c>
-      <c r="D124" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>18330051920339</v>
-      </c>
-      <c r="B125" t="s">
-        <v>79</v>
-      </c>
-      <c r="C125" t="s">
-        <v>106</v>
-      </c>
-      <c r="D125" t="s">
-        <v>138</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>18330051920339</v>
-      </c>
-      <c r="B126" t="s">
-        <v>79</v>
-      </c>
-      <c r="C126" t="s">
-        <v>106</v>
-      </c>
-      <c r="D126" t="s">
-        <v>138</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>18330051920339</v>
-      </c>
-      <c r="B127" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127" t="s">
-        <v>106</v>
-      </c>
-      <c r="D127" t="s">
-        <v>138</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>18330051920340</v>
-      </c>
-      <c r="B128" t="s">
-        <v>80</v>
-      </c>
-      <c r="C128" t="s">
-        <v>107</v>
-      </c>
-      <c r="D128" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" t="s">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>18330051920340</v>
-      </c>
-      <c r="B129" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" t="s">
-        <v>107</v>
-      </c>
-      <c r="D129" t="s">
-        <v>139</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>18330051920340</v>
-      </c>
-      <c r="B130" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D130" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>18330051920340</v>
-      </c>
-      <c r="B131" t="s">
-        <v>80</v>
-      </c>
-      <c r="C131" t="s">
-        <v>107</v>
-      </c>
-      <c r="D131" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>18330051920340</v>
-      </c>
-      <c r="B132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C132" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132" t="s">
-        <v>139</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>18330051920340</v>
-      </c>
-      <c r="B133" t="s">
-        <v>80</v>
-      </c>
-      <c r="C133" t="s">
-        <v>107</v>
-      </c>
-      <c r="D133" t="s">
-        <v>139</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>18330051920341</v>
-      </c>
-      <c r="B134" t="s">
-        <v>81</v>
-      </c>
-      <c r="C134" t="s">
-        <v>71</v>
-      </c>
-      <c r="D134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>18330051920341</v>
-      </c>
-      <c r="B135" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" t="s">
-        <v>71</v>
-      </c>
-      <c r="D135" t="s">
-        <v>140</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>18330051920341</v>
-      </c>
-      <c r="B136" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D136" t="s">
-        <v>140</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>18330051920341</v>
-      </c>
-      <c r="B137" t="s">
-        <v>81</v>
-      </c>
-      <c r="C137" t="s">
-        <v>71</v>
-      </c>
-      <c r="D137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E137" t="s">
-        <v>8</v>
-      </c>
-      <c r="F137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>18330051920341</v>
-      </c>
-      <c r="B138" t="s">
-        <v>81</v>
-      </c>
-      <c r="C138" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138" t="s">
-        <v>140</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>18330051920341</v>
-      </c>
-      <c r="B139" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" t="s">
-        <v>71</v>
-      </c>
-      <c r="D139" t="s">
-        <v>140</v>
-      </c>
-      <c r="E139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>18330051920342</v>
-      </c>
-      <c r="B140" t="s">
-        <v>82</v>
-      </c>
-      <c r="C140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" t="s">
-        <v>141</v>
-      </c>
-      <c r="E140" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>18330051920342</v>
-      </c>
-      <c r="B141" t="s">
-        <v>82</v>
-      </c>
-      <c r="C141" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" t="s">
-        <v>141</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4</v>
-      </c>
-      <c r="F141" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>18330051920342</v>
-      </c>
-      <c r="B142" t="s">
-        <v>82</v>
-      </c>
-      <c r="C142" t="s">
-        <v>108</v>
-      </c>
-      <c r="D142" t="s">
-        <v>141</v>
-      </c>
-      <c r="E142" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>18330051920342</v>
-      </c>
-      <c r="B143" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" t="s">
-        <v>141</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>18330051920342</v>
-      </c>
-      <c r="B144" t="s">
-        <v>82</v>
-      </c>
-      <c r="C144" t="s">
-        <v>108</v>
-      </c>
-      <c r="D144" t="s">
-        <v>141</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>18330051920342</v>
-      </c>
-      <c r="B145" t="s">
-        <v>82</v>
-      </c>
-      <c r="C145" t="s">
-        <v>108</v>
-      </c>
-      <c r="D145" t="s">
-        <v>141</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>18330051920343</v>
-      </c>
-      <c r="B146" t="s">
-        <v>83</v>
-      </c>
-      <c r="C146" t="s">
-        <v>109</v>
-      </c>
-      <c r="D146" t="s">
-        <v>142</v>
-      </c>
-      <c r="E146" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>18330051920343</v>
-      </c>
-      <c r="B147" t="s">
-        <v>83</v>
-      </c>
-      <c r="C147" t="s">
-        <v>109</v>
-      </c>
-      <c r="D147" t="s">
-        <v>142</v>
-      </c>
-      <c r="E147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>18330051920343</v>
-      </c>
-      <c r="B148" t="s">
-        <v>83</v>
-      </c>
-      <c r="C148" t="s">
-        <v>109</v>
-      </c>
-      <c r="D148" t="s">
-        <v>142</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>18330051920343</v>
-      </c>
-      <c r="B149" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" t="s">
-        <v>109</v>
-      </c>
-      <c r="D149" t="s">
-        <v>142</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>18330051920343</v>
-      </c>
-      <c r="B150" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" t="s">
-        <v>109</v>
-      </c>
-      <c r="D150" t="s">
-        <v>142</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>18330051920343</v>
-      </c>
-      <c r="B151" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" t="s">
-        <v>109</v>
-      </c>
-      <c r="D151" t="s">
-        <v>142</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>18330051920344</v>
-      </c>
-      <c r="B152" t="s">
-        <v>84</v>
-      </c>
-      <c r="C152" t="s">
-        <v>86</v>
-      </c>
-      <c r="D152" t="s">
-        <v>143</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>18330051920344</v>
-      </c>
-      <c r="B153" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" t="s">
-        <v>86</v>
-      </c>
-      <c r="D153" t="s">
-        <v>143</v>
-      </c>
-      <c r="E153" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>18330051920344</v>
-      </c>
-      <c r="B154" t="s">
-        <v>84</v>
-      </c>
-      <c r="C154" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" t="s">
-        <v>143</v>
-      </c>
-      <c r="E154" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>18330051920344</v>
-      </c>
-      <c r="B155" t="s">
-        <v>84</v>
-      </c>
-      <c r="C155" t="s">
-        <v>86</v>
-      </c>
-      <c r="D155" t="s">
-        <v>143</v>
-      </c>
-      <c r="E155" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>18330051920344</v>
-      </c>
-      <c r="B156" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" t="s">
-        <v>86</v>
-      </c>
-      <c r="D156" t="s">
-        <v>143</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>18330051920344</v>
-      </c>
-      <c r="B157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" t="s">
-        <v>86</v>
-      </c>
-      <c r="D157" t="s">
-        <v>143</v>
-      </c>
-      <c r="E157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>18330051920426</v>
-      </c>
-      <c r="B158" t="s">
-        <v>85</v>
-      </c>
-      <c r="C158" t="s">
-        <v>110</v>
-      </c>
-      <c r="D158" t="s">
-        <v>144</v>
-      </c>
-      <c r="E158" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>18330051920426</v>
-      </c>
-      <c r="B159" t="s">
-        <v>85</v>
-      </c>
-      <c r="C159" t="s">
-        <v>110</v>
-      </c>
-      <c r="D159" t="s">
-        <v>144</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>18330051920426</v>
-      </c>
-      <c r="B160" t="s">
-        <v>85</v>
-      </c>
-      <c r="C160" t="s">
-        <v>110</v>
-      </c>
-      <c r="D160" t="s">
-        <v>144</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>18330051920426</v>
-      </c>
-      <c r="B161" t="s">
-        <v>85</v>
-      </c>
-      <c r="C161" t="s">
-        <v>110</v>
-      </c>
-      <c r="D161" t="s">
-        <v>144</v>
-      </c>
-      <c r="E161" t="s">
-        <v>4</v>
-      </c>
-      <c r="F161" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>18330051920426</v>
-      </c>
-      <c r="B162" t="s">
-        <v>85</v>
-      </c>
-      <c r="C162" t="s">
-        <v>110</v>
-      </c>
-      <c r="D162" t="s">
-        <v>144</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>18330051920426</v>
-      </c>
-      <c r="B163" t="s">
-        <v>85</v>
-      </c>
-      <c r="C163" t="s">
-        <v>110</v>
-      </c>
-      <c r="D163" t="s">
-        <v>144</v>
-      </c>
-      <c r="E163" t="s">
-        <v>6</v>
-      </c>
-      <c r="F163" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>18330051920346</v>
-      </c>
-      <c r="B164" t="s">
-        <v>86</v>
-      </c>
-      <c r="C164" t="s">
-        <v>111</v>
-      </c>
-      <c r="D164" t="s">
-        <v>145</v>
-      </c>
-      <c r="E164" t="s">
-        <v>6</v>
-      </c>
-      <c r="F164" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>18330051920346</v>
-      </c>
-      <c r="B165" t="s">
-        <v>86</v>
-      </c>
-      <c r="C165" t="s">
-        <v>111</v>
-      </c>
-      <c r="D165" t="s">
-        <v>145</v>
-      </c>
-      <c r="E165" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>18330051920346</v>
-      </c>
-      <c r="B166" t="s">
-        <v>86</v>
-      </c>
-      <c r="C166" t="s">
-        <v>111</v>
-      </c>
-      <c r="D166" t="s">
-        <v>145</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>18330051920346</v>
-      </c>
-      <c r="B167" t="s">
-        <v>86</v>
-      </c>
-      <c r="C167" t="s">
-        <v>111</v>
-      </c>
-      <c r="D167" t="s">
-        <v>145</v>
-      </c>
-      <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>18330051920346</v>
-      </c>
-      <c r="B168" t="s">
-        <v>86</v>
-      </c>
-      <c r="C168" t="s">
-        <v>111</v>
-      </c>
-      <c r="D168" t="s">
-        <v>145</v>
-      </c>
-      <c r="E168" t="s">
-        <v>4</v>
-      </c>
-      <c r="F168" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>18330051920346</v>
-      </c>
-      <c r="B169" t="s">
-        <v>86</v>
-      </c>
-      <c r="C169" t="s">
-        <v>111</v>
-      </c>
-      <c r="D169" t="s">
-        <v>145</v>
-      </c>
-      <c r="E169" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>18330051920347</v>
-      </c>
-      <c r="B170" t="s">
-        <v>87</v>
-      </c>
-      <c r="C170" t="s">
-        <v>112</v>
-      </c>
-      <c r="D170" t="s">
-        <v>146</v>
-      </c>
-      <c r="E170" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>18330051920347</v>
-      </c>
-      <c r="B171" t="s">
-        <v>87</v>
-      </c>
-      <c r="C171" t="s">
-        <v>112</v>
-      </c>
-      <c r="D171" t="s">
-        <v>146</v>
-      </c>
-      <c r="E171" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>18330051920347</v>
-      </c>
-      <c r="B172" t="s">
-        <v>87</v>
-      </c>
-      <c r="C172" t="s">
-        <v>112</v>
-      </c>
-      <c r="D172" t="s">
-        <v>146</v>
-      </c>
-      <c r="E172" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>18330051920347</v>
-      </c>
-      <c r="B173" t="s">
-        <v>87</v>
-      </c>
-      <c r="C173" t="s">
-        <v>112</v>
-      </c>
-      <c r="D173" t="s">
-        <v>146</v>
-      </c>
-      <c r="E173" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>18330051920347</v>
-      </c>
-      <c r="B174" t="s">
-        <v>87</v>
-      </c>
-      <c r="C174" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" t="s">
-        <v>146</v>
-      </c>
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>18330051920347</v>
-      </c>
-      <c r="B175" t="s">
-        <v>87</v>
-      </c>
-      <c r="C175" t="s">
-        <v>112</v>
-      </c>
-      <c r="D175" t="s">
-        <v>146</v>
-      </c>
-      <c r="E175" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>18330051920350</v>
-      </c>
-      <c r="B176" t="s">
-        <v>88</v>
-      </c>
-      <c r="C176" t="s">
-        <v>113</v>
-      </c>
-      <c r="D176" t="s">
-        <v>147</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>18330051920350</v>
-      </c>
-      <c r="B177" t="s">
-        <v>88</v>
-      </c>
-      <c r="C177" t="s">
-        <v>113</v>
-      </c>
-      <c r="D177" t="s">
-        <v>147</v>
-      </c>
-      <c r="E177" t="s">
-        <v>4</v>
-      </c>
-      <c r="F177" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>18330051920350</v>
-      </c>
-      <c r="B178" t="s">
-        <v>88</v>
-      </c>
-      <c r="C178" t="s">
-        <v>113</v>
-      </c>
-      <c r="D178" t="s">
-        <v>147</v>
-      </c>
-      <c r="E178" t="s">
-        <v>8</v>
-      </c>
-      <c r="F178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>18330051920350</v>
-      </c>
-      <c r="B179" t="s">
-        <v>88</v>
-      </c>
-      <c r="C179" t="s">
-        <v>113</v>
-      </c>
-      <c r="D179" t="s">
-        <v>147</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>18330051920350</v>
-      </c>
-      <c r="B180" t="s">
-        <v>88</v>
-      </c>
-      <c r="C180" t="s">
-        <v>113</v>
-      </c>
-      <c r="D180" t="s">
-        <v>147</v>
-      </c>
-      <c r="E180" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>18330051920350</v>
-      </c>
-      <c r="B181" t="s">
-        <v>88</v>
-      </c>
-      <c r="C181" t="s">
-        <v>113</v>
-      </c>
-      <c r="D181" t="s">
-        <v>147</v>
-      </c>
-      <c r="E181" t="s">
-        <v>5</v>
-      </c>
-      <c r="F181" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>18330051920348</v>
-      </c>
-      <c r="B182" t="s">
-        <v>89</v>
-      </c>
-      <c r="C182" t="s">
-        <v>75</v>
-      </c>
-      <c r="D182" t="s">
-        <v>148</v>
-      </c>
-      <c r="E182" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>18330051920348</v>
-      </c>
-      <c r="B183" t="s">
-        <v>89</v>
-      </c>
-      <c r="C183" t="s">
-        <v>75</v>
-      </c>
-      <c r="D183" t="s">
-        <v>148</v>
-      </c>
-      <c r="E183" t="s">
-        <v>4</v>
-      </c>
-      <c r="F183" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>18330051920348</v>
-      </c>
-      <c r="B184" t="s">
-        <v>89</v>
-      </c>
-      <c r="C184" t="s">
-        <v>75</v>
-      </c>
-      <c r="D184" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>18330051920348</v>
-      </c>
-      <c r="B185" t="s">
-        <v>89</v>
-      </c>
-      <c r="C185" t="s">
-        <v>75</v>
-      </c>
-      <c r="D185" t="s">
-        <v>148</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>18330051920348</v>
-      </c>
-      <c r="B186" t="s">
-        <v>89</v>
-      </c>
-      <c r="C186" t="s">
-        <v>75</v>
-      </c>
-      <c r="D186" t="s">
-        <v>148</v>
-      </c>
-      <c r="E186" t="s">
-        <v>9</v>
-      </c>
-      <c r="F186" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>18330051920348</v>
-      </c>
-      <c r="B187" t="s">
-        <v>89</v>
-      </c>
-      <c r="C187" t="s">
-        <v>75</v>
-      </c>
-      <c r="D187" t="s">
-        <v>148</v>
-      </c>
-      <c r="E187" t="s">
-        <v>7</v>
-      </c>
-      <c r="F187" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>18330051920349</v>
-      </c>
-      <c r="B188" t="s">
-        <v>90</v>
-      </c>
-      <c r="C188" t="s">
-        <v>114</v>
-      </c>
-      <c r="D188" t="s">
-        <v>149</v>
-      </c>
-      <c r="E188" t="s">
-        <v>5</v>
-      </c>
-      <c r="F188" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>18330051920349</v>
-      </c>
-      <c r="B189" t="s">
-        <v>90</v>
-      </c>
-      <c r="C189" t="s">
-        <v>114</v>
-      </c>
-      <c r="D189" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" t="s">
-        <v>6</v>
-      </c>
-      <c r="F189" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>18330051920349</v>
-      </c>
-      <c r="B190" t="s">
-        <v>90</v>
-      </c>
-      <c r="C190" t="s">
-        <v>114</v>
-      </c>
-      <c r="D190" t="s">
-        <v>149</v>
-      </c>
-      <c r="E190" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>18330051920349</v>
-      </c>
-      <c r="B191" t="s">
-        <v>90</v>
-      </c>
-      <c r="C191" t="s">
-        <v>114</v>
-      </c>
-      <c r="D191" t="s">
-        <v>149</v>
-      </c>
-      <c r="E191" t="s">
-        <v>9</v>
-      </c>
-      <c r="F191" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>18330051920349</v>
-      </c>
-      <c r="B192" t="s">
-        <v>90</v>
-      </c>
-      <c r="C192" t="s">
-        <v>114</v>
-      </c>
-      <c r="D192" t="s">
-        <v>149</v>
-      </c>
-      <c r="E192" t="s">
-        <v>7</v>
-      </c>
-      <c r="F192" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>18330051920349</v>
-      </c>
-      <c r="B193" t="s">
-        <v>90</v>
-      </c>
-      <c r="C193" t="s">
-        <v>114</v>
-      </c>
-      <c r="D193" t="s">
-        <v>149</v>
-      </c>
-      <c r="E193" t="s">
-        <v>4</v>
-      </c>
-      <c r="F193" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>18330051920427</v>
-      </c>
-      <c r="B194" t="s">
-        <v>91</v>
-      </c>
-      <c r="C194" t="s">
-        <v>115</v>
-      </c>
-      <c r="D194" t="s">
-        <v>150</v>
-      </c>
-      <c r="E194" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>18330051920427</v>
-      </c>
-      <c r="B195" t="s">
-        <v>91</v>
-      </c>
-      <c r="C195" t="s">
-        <v>115</v>
-      </c>
-      <c r="D195" t="s">
-        <v>150</v>
-      </c>
-      <c r="E195" t="s">
-        <v>8</v>
-      </c>
-      <c r="F195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>18330051920427</v>
-      </c>
-      <c r="B196" t="s">
-        <v>91</v>
-      </c>
-      <c r="C196" t="s">
-        <v>115</v>
-      </c>
-      <c r="D196" t="s">
-        <v>150</v>
-      </c>
-      <c r="E196" t="s">
-        <v>6</v>
-      </c>
-      <c r="F196" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>18330051920427</v>
-      </c>
-      <c r="B197" t="s">
-        <v>91</v>
-      </c>
-      <c r="C197" t="s">
-        <v>115</v>
-      </c>
-      <c r="D197" t="s">
-        <v>150</v>
-      </c>
-      <c r="E197" t="s">
-        <v>4</v>
-      </c>
-      <c r="F197" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>18330051920427</v>
-      </c>
-      <c r="B198" t="s">
-        <v>91</v>
-      </c>
-      <c r="C198" t="s">
-        <v>115</v>
-      </c>
-      <c r="D198" t="s">
-        <v>150</v>
-      </c>
-      <c r="E198" t="s">
-        <v>5</v>
-      </c>
-      <c r="F198" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>18330051920427</v>
-      </c>
-      <c r="B199" t="s">
-        <v>91</v>
-      </c>
-      <c r="C199" t="s">
-        <v>115</v>
-      </c>
-      <c r="D199" t="s">
-        <v>150</v>
-      </c>
-      <c r="E199" t="s">
-        <v>7</v>
-      </c>
-      <c r="F199" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>18330051920428</v>
-      </c>
-      <c r="B200" t="s">
-        <v>92</v>
-      </c>
-      <c r="C200" t="s">
-        <v>116</v>
-      </c>
-      <c r="D200" t="s">
-        <v>151</v>
-      </c>
-      <c r="E200" t="s">
-        <v>4</v>
-      </c>
-      <c r="F200" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>18330051920428</v>
-      </c>
-      <c r="B201" t="s">
-        <v>92</v>
-      </c>
-      <c r="C201" t="s">
-        <v>116</v>
-      </c>
-      <c r="D201" t="s">
-        <v>151</v>
-      </c>
-      <c r="E201" t="s">
-        <v>5</v>
-      </c>
-      <c r="F201" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>18330051920428</v>
-      </c>
-      <c r="B202" t="s">
-        <v>92</v>
-      </c>
-      <c r="C202" t="s">
-        <v>116</v>
-      </c>
-      <c r="D202" t="s">
-        <v>151</v>
-      </c>
-      <c r="E202" t="s">
-        <v>6</v>
-      </c>
-      <c r="F202" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>18330051920428</v>
-      </c>
-      <c r="B203" t="s">
-        <v>92</v>
-      </c>
-      <c r="C203" t="s">
-        <v>116</v>
-      </c>
-      <c r="D203" t="s">
-        <v>151</v>
-      </c>
-      <c r="E203" t="s">
-        <v>8</v>
-      </c>
-      <c r="F203" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>18330051920428</v>
-      </c>
-      <c r="B204" t="s">
-        <v>92</v>
-      </c>
-      <c r="C204" t="s">
-        <v>116</v>
-      </c>
-      <c r="D204" t="s">
-        <v>151</v>
-      </c>
-      <c r="E204" t="s">
-        <v>7</v>
-      </c>
-      <c r="F204" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>18330051920428</v>
-      </c>
-      <c r="B205" t="s">
-        <v>92</v>
-      </c>
-      <c r="C205" t="s">
-        <v>116</v>
-      </c>
-      <c r="D205" t="s">
-        <v>151</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>18330051920352</v>
-      </c>
-      <c r="B206" t="s">
-        <v>92</v>
-      </c>
-      <c r="C206" t="s">
-        <v>117</v>
-      </c>
-      <c r="D206" t="s">
-        <v>152</v>
-      </c>
-      <c r="E206" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>18330051920352</v>
-      </c>
-      <c r="B207" t="s">
-        <v>92</v>
-      </c>
-      <c r="C207" t="s">
-        <v>117</v>
-      </c>
-      <c r="D207" t="s">
-        <v>152</v>
-      </c>
-      <c r="E207" t="s">
-        <v>5</v>
-      </c>
-      <c r="F207" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>18330051920352</v>
-      </c>
-      <c r="B208" t="s">
-        <v>92</v>
-      </c>
-      <c r="C208" t="s">
-        <v>117</v>
-      </c>
-      <c r="D208" t="s">
-        <v>152</v>
-      </c>
-      <c r="E208" t="s">
-        <v>4</v>
-      </c>
-      <c r="F208" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>18330051920352</v>
-      </c>
-      <c r="B209" t="s">
-        <v>92</v>
-      </c>
-      <c r="C209" t="s">
-        <v>117</v>
-      </c>
-      <c r="D209" t="s">
-        <v>152</v>
-      </c>
-      <c r="E209" t="s">
-        <v>9</v>
-      </c>
-      <c r="F209" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>18330051920352</v>
-      </c>
-      <c r="B210" t="s">
-        <v>92</v>
-      </c>
-      <c r="C210" t="s">
-        <v>117</v>
-      </c>
-      <c r="D210" t="s">
-        <v>152</v>
-      </c>
-      <c r="E210" t="s">
-        <v>7</v>
-      </c>
-      <c r="F210" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>18330051920352</v>
-      </c>
-      <c r="B211" t="s">
-        <v>92</v>
-      </c>
-      <c r="C211" t="s">
-        <v>117</v>
-      </c>
-      <c r="D211" t="s">
-        <v>152</v>
-      </c>
-      <c r="E211" t="s">
-        <v>6</v>
-      </c>
-      <c r="F211" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7517,84 +4494,84 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>18330051920320</v>
+        <v>18330051920319</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920328</v>
+        <v>18330051920320</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>18330051920329</v>
+        <v>18330051920425</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920336</v>
+        <v>18330051920346</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920341</v>
+        <v>18330051920314</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -7602,16 +4579,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920343</v>
+        <v>18330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -7619,53 +4596,53 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920318</v>
+        <v>18330051920328</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920319</v>
+        <v>18330051920331</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920331</v>
+        <v>18330051920429</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7682,381 +4659,381 @@
         <v>131</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920425</v>
+        <v>18330051920333</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920342</v>
+        <v>18330051920336</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920346</v>
+        <v>18330051920339</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920428</v>
+        <v>18330051920340</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920315</v>
+        <v>18330051920341</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920314</v>
+        <v>18330051920342</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920317</v>
+        <v>18330051920343</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920316</v>
+        <v>18330051920347</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920327</v>
+        <v>18330051920348</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920429</v>
+        <v>18330051920352</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920332</v>
+        <v>18330051920315</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920333</v>
+        <v>18330051920317</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920334</v>
+        <v>18330051920316</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920337</v>
+        <v>18330051920327</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920335</v>
+        <v>18330051920329</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920339</v>
+        <v>18330051920332</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920340</v>
+        <v>18330051920334</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920344</v>
+        <v>18330051920337</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920426</v>
+        <v>18330051920335</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18330051920347</v>
+        <v>18330051920344</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18330051920350</v>
+        <v>18330051920426</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18330051920348</v>
+        <v>18330051920350</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8073,7 +5050,7 @@
         <v>149</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8090,24 +5067,24 @@
         <v>150</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18330051920352</v>
+        <v>18330051920428</v>
       </c>
       <c r="B36" t="s">
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8117,7 +5094,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8147,7 +5124,674 @@
         <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920429</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920424</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920424</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920339</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920347</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920352</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920317</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920327</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920332</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920334</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920337</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920344</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920350</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920349</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>18330051920427</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>18330051920428</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6BLCM - Estadisticos 2020.xlsx
+++ b/grupos/6BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -212,271 +212,271 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DEGANTE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>VALENZUELA</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>BRINGAS</t>
+  </si>
+  <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>BERNAL</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>DIANA VIANEY</t>
+  </si>
+  <si>
+    <t>TAURINO JUNIORS</t>
+  </si>
+  <si>
+    <t>SHARITH</t>
+  </si>
+  <si>
+    <t>LEZLYE PATRICIA</t>
+  </si>
+  <si>
+    <t>MIRANDA DARLLENECK</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>PAOLA BETSABET</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>ELENA JUNETH</t>
+  </si>
+  <si>
+    <t>SILVIA ESMERALDA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>DIEGO OLLIN</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>BRISEIDA</t>
+  </si>
+  <si>
+    <t>ESTEFANIA ADRIANA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>ANGEL DANIEL</t>
+  </si>
+  <si>
+    <t>JOSUE ADARAYAN</t>
+  </si>
+  <si>
+    <t>YADIRA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
+  </si>
+  <si>
     <t>ARANA</t>
   </si>
   <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
     <t>BUSTOS</t>
   </si>
   <si>
     <t>BAEZ</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DEGANTE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>ROSAS</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>VALENZUELA</t>
-  </si>
-  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
     <t>MONTALVO</t>
   </si>
   <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
-    <t>BRINGAS</t>
-  </si>
-  <si>
-    <t>OLMEDO</t>
-  </si>
-  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>BERNAL</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>SALVADOR</t>
   </si>
   <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
     <t>OLTEHUA</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
     <t>JOALY</t>
   </si>
   <si>
-    <t>DIANA VIANEY</t>
-  </si>
-  <si>
     <t>GABRIELA ANGELICA</t>
   </si>
   <si>
     <t>ALMA</t>
   </si>
   <si>
-    <t>TAURINO JUNIORS</t>
-  </si>
-  <si>
-    <t>SHARITH</t>
-  </si>
-  <si>
-    <t>LEZLYE PATRICIA</t>
-  </si>
-  <si>
     <t>DENISSE GUADALUPE</t>
   </si>
   <si>
-    <t>MIRANDA DARLLENECK</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>PAOLA BETSABET</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
     <t>DIANA</t>
   </si>
   <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>ELENA JUNETH</t>
-  </si>
-  <si>
-    <t>SILVIA ESMERALDA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>DIEGO OLLIN</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
     <t>ELIZABETH</t>
   </si>
   <si>
-    <t>ROCIO TAMARA</t>
-  </si>
-  <si>
-    <t>BRISEIDA</t>
-  </si>
-  <si>
-    <t>ESTEFANIA ADRIANA</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>ANGEL DANIEL</t>
-  </si>
-  <si>
     <t>VIANEY</t>
   </si>
   <si>
-    <t>JOSUE ADARAYAN</t>
-  </si>
-  <si>
-    <t>YADIRA</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
     <t>DAVID</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>VICTORIA</t>
   </si>
   <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
     <t>DAFNE YVETTE</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <v>9</v>
@@ -1140,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -1376,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -1494,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1594,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -1966,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -2243,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -2302,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2438,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -2538,7 +2538,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -2733,7 +2733,7 @@
         <v>7</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -2792,7 +2792,7 @@
         <v>9</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
         <v>8</v>
@@ -2892,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -2910,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -3063,22 +3063,25 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>37.14</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>62.86</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3248,7 +3251,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3280,36 +3283,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920315</v>
+        <v>18330051920314</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920314</v>
+        <v>18330051920318</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -3320,36 +3323,36 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920314</v>
+        <v>18330051920318</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920317</v>
+        <v>18330051920319</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3360,36 +3363,36 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920316</v>
+        <v>18330051920319</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920318</v>
+        <v>18330051920319</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3400,56 +3403,56 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920318</v>
+        <v>18330051920320</v>
       </c>
       <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920319</v>
+        <v>18330051920320</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920319</v>
+        <v>18330051920320</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -3460,76 +3463,76 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920319</v>
+        <v>18330051920328</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920320</v>
+        <v>18330051920328</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920320</v>
+        <v>18330051920331</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920320</v>
+        <v>18330051920331</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -3540,36 +3543,36 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920327</v>
+        <v>18330051920429</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920328</v>
+        <v>18330051920329</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -3580,36 +3583,36 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920328</v>
+        <v>18330051920424</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920331</v>
+        <v>18330051920424</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -3620,16 +3623,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920331</v>
+        <v>18330051920425</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -3640,36 +3643,36 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920429</v>
+        <v>18330051920425</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920429</v>
+        <v>18330051920425</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -3680,36 +3683,36 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920329</v>
+        <v>18330051920333</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920332</v>
+        <v>18330051920334</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -3720,16 +3723,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920424</v>
+        <v>18330051920336</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -3740,16 +3743,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920424</v>
+        <v>18330051920336</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3760,136 +3763,136 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920425</v>
+        <v>18330051920337</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920425</v>
+        <v>18330051920339</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920425</v>
+        <v>18330051920339</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>18330051920333</v>
+        <v>18330051920340</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920333</v>
+        <v>18330051920340</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>18330051920334</v>
+        <v>18330051920341</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920336</v>
+        <v>18330051920341</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -3900,56 +3903,56 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>18330051920336</v>
+        <v>18330051920342</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920337</v>
+        <v>18330051920342</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>18330051920335</v>
+        <v>18330051920343</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -3960,16 +3963,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920339</v>
+        <v>18330051920343</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -3980,16 +3983,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920339</v>
+        <v>18330051920426</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -4000,36 +4003,36 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>18330051920340</v>
+        <v>18330051920346</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>18330051920340</v>
+        <v>18330051920346</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -4040,36 +4043,36 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920341</v>
+        <v>18330051920346</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>18330051920341</v>
+        <v>18330051920347</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -4080,36 +4083,36 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920342</v>
+        <v>18330051920347</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>18330051920342</v>
+        <v>18330051920348</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -4120,16 +4123,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920343</v>
+        <v>18330051920348</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -4140,36 +4143,36 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920343</v>
+        <v>18330051920427</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>18330051920344</v>
+        <v>18330051920352</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -4180,281 +4183,21 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920426</v>
+        <v>18330051920352</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920346</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920346</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920346</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920347</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920347</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920350</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920348</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920348</v>
-      </c>
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920349</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920427</v>
-      </c>
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920428</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920352</v>
-      </c>
-      <c r="B59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920352</v>
-      </c>
-      <c r="B60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4497,13 +4240,13 @@
         <v>18330051920319</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4514,13 +4257,13 @@
         <v>18330051920320</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4531,13 +4274,13 @@
         <v>18330051920425</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4548,13 +4291,13 @@
         <v>18330051920346</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4562,16 +4305,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920314</v>
+        <v>18330051920318</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4579,16 +4322,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920318</v>
+        <v>18330051920328</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4596,16 +4339,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920328</v>
+        <v>18330051920331</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4613,16 +4356,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920331</v>
+        <v>18330051920424</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4630,16 +4373,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920429</v>
+        <v>18330051920336</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4647,16 +4390,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920424</v>
+        <v>18330051920339</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4664,16 +4407,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920333</v>
+        <v>18330051920340</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4681,16 +4424,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920336</v>
+        <v>18330051920341</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4698,16 +4441,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920339</v>
+        <v>18330051920342</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4715,16 +4458,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920340</v>
+        <v>18330051920343</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4732,16 +4475,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920341</v>
+        <v>18330051920347</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4749,16 +4492,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920342</v>
+        <v>18330051920348</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4766,16 +4509,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920343</v>
+        <v>18330051920352</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -4783,67 +4526,67 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920347</v>
+        <v>18330051920314</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920348</v>
+        <v>18330051920429</v>
       </c>
       <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920352</v>
+        <v>18330051920329</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920315</v>
+        <v>18330051920333</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4851,16 +4594,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920317</v>
+        <v>18330051920334</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4868,16 +4611,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920316</v>
+        <v>18330051920337</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4885,16 +4628,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920327</v>
+        <v>18330051920426</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4902,16 +4645,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920329</v>
+        <v>18330051920427</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4919,155 +4662,155 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920332</v>
+        <v>18330051920315</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920334</v>
+        <v>18330051920317</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920337</v>
+        <v>18330051920316</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920335</v>
+        <v>18330051920327</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18330051920344</v>
+        <v>18330051920332</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18330051920426</v>
+        <v>18330051920335</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18330051920350</v>
+        <v>18330051920344</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18330051920349</v>
+        <v>18330051920350</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>18330051920427</v>
+        <v>18330051920349</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5075,16 +4818,16 @@
         <v>18330051920428</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +4837,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5129,16 +4872,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920429</v>
+        <v>18330051920329</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5152,39 +4895,39 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920429</v>
+        <v>18330051920329</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920329</v>
+        <v>18330051920424</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -5198,16 +4941,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920329</v>
+        <v>18330051920424</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -5216,21 +4959,21 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920424</v>
+        <v>18330051920339</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -5244,16 +4987,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920424</v>
+        <v>18330051920339</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5267,16 +5010,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920333</v>
+        <v>18330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5290,16 +5033,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920333</v>
+        <v>18330051920342</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -5313,16 +5056,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920339</v>
+        <v>18330051920347</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -5336,16 +5079,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920339</v>
+        <v>18330051920347</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -5359,16 +5102,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920342</v>
+        <v>18330051920352</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -5382,16 +5125,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920342</v>
+        <v>18330051920352</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -5405,22 +5148,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920347</v>
+        <v>18330051920429</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -5428,16 +5171,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920347</v>
+        <v>18330051920333</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -5451,16 +5194,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920352</v>
+        <v>18330051920334</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -5474,22 +5217,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920352</v>
+        <v>18330051920337</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -5497,16 +5240,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920315</v>
+        <v>18330051920427</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -5515,282 +5258,6 @@
         <v>55</v>
       </c>
       <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330051920317</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18330051920316</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18330051920327</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>18330051920332</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>18330051920334</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>18330051920337</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>18330051920335</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>18330051920344</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>18330051920350</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>18330051920349</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>18330051920427</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>18330051920428</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6BLCM - Estadisticos 2020.xlsx
+++ b/grupos/6BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="153">
   <si>
     <t>Materia</t>
   </si>
@@ -287,178 +287,178 @@
     <t>BRINGAS</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>BERNAL</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>DIANA VIANEY</t>
+  </si>
+  <si>
+    <t>TAURINO JUNIORS</t>
+  </si>
+  <si>
+    <t>SHARITH</t>
+  </si>
+  <si>
+    <t>LEZLYE PATRICIA</t>
+  </si>
+  <si>
+    <t>MIRANDA DARLLENECK</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>ELENA JUNETH</t>
+  </si>
+  <si>
+    <t>SILVIA ESMERALDA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>DIEGO OLLIN</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>BRISEIDA</t>
+  </si>
+  <si>
+    <t>ESTEFANIA ADRIANA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>ANGEL DANIEL</t>
+  </si>
+  <si>
+    <t>JOSUE ADARAYAN</t>
+  </si>
+  <si>
+    <t>YADIRA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
+  </si>
+  <si>
+    <t>ARANA</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
     <t>OLMEDO</t>
   </si>
   <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>BERNAL</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>DIANA VIANEY</t>
-  </si>
-  <si>
-    <t>TAURINO JUNIORS</t>
-  </si>
-  <si>
-    <t>SHARITH</t>
-  </si>
-  <si>
-    <t>LEZLYE PATRICIA</t>
-  </si>
-  <si>
-    <t>MIRANDA DARLLENECK</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>JOALY</t>
+  </si>
+  <si>
+    <t>GABRIELA ANGELICA</t>
+  </si>
+  <si>
+    <t>ALMA</t>
+  </si>
+  <si>
+    <t>DENISSE GUADALUPE</t>
   </si>
   <si>
     <t>PAOLA BETSABET</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>ELENA JUNETH</t>
-  </si>
-  <si>
-    <t>SILVIA ESMERALDA</t>
-  </si>
-  <si>
-    <t>JOEL</t>
-  </si>
-  <si>
-    <t>DIEGO OLLIN</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>ROCIO TAMARA</t>
-  </si>
-  <si>
-    <t>BRISEIDA</t>
-  </si>
-  <si>
-    <t>ESTEFANIA ADRIANA</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>ANGEL DANIEL</t>
-  </si>
-  <si>
-    <t>JOSUE ADARAYAN</t>
-  </si>
-  <si>
-    <t>YADIRA</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
-  </si>
-  <si>
-    <t>ARANA</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>MONTALVO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>JOALY</t>
-  </si>
-  <si>
-    <t>GABRIELA ANGELICA</t>
-  </si>
-  <si>
-    <t>ALMA</t>
-  </si>
-  <si>
-    <t>DENISSE GUADALUPE</t>
   </si>
   <si>
     <t>DIANA</t>
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -3191,25 +3191,25 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>74.29000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="G6">
-        <v>25.71</v>
+        <v>22.86</v>
       </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>17.14</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3251,7 +3251,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3292,7 +3292,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3312,7 +3312,7 @@
         <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -3332,7 +3332,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3352,7 +3352,7 @@
         <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3372,7 +3372,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3392,7 +3392,7 @@
         <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3412,7 +3412,7 @@
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -3432,7 +3432,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -3452,7 +3452,7 @@
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -3472,7 +3472,7 @@
         <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3492,7 +3492,7 @@
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -3512,7 +3512,7 @@
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3532,7 +3532,7 @@
         <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -3543,36 +3543,36 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920429</v>
+        <v>18330051920329</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920329</v>
+        <v>18330051920424</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -3589,36 +3589,36 @@
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920424</v>
+        <v>18330051920425</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3632,13 +3632,13 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3652,67 +3652,67 @@
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920425</v>
+        <v>18330051920333</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920333</v>
+        <v>18330051920334</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920334</v>
+        <v>18330051920336</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -3729,50 +3729,50 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920336</v>
+        <v>18330051920337</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920337</v>
+        <v>18330051920339</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -3789,36 +3789,36 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920339</v>
+        <v>18330051920340</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3829,30 +3829,30 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>18330051920340</v>
+        <v>18330051920341</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -3872,27 +3872,27 @@
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>18330051920341</v>
+        <v>18330051920342</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -3909,36 +3909,36 @@
         <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>18330051920342</v>
+        <v>18330051920343</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3949,56 +3949,56 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920343</v>
+        <v>18330051920426</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>18330051920426</v>
+        <v>18330051920346</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4009,16 +4009,16 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4029,30 +4029,30 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>18330051920346</v>
+        <v>18330051920347</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -4069,30 +4069,30 @@
         <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>18330051920347</v>
+        <v>18330051920348</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -4112,27 +4112,27 @@
         <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>18330051920348</v>
+        <v>18330051920427</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -4143,16 +4143,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>18330051920427</v>
+        <v>18330051920352</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
         <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -4169,35 +4169,15 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>18330051920352</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4246,7 +4226,7 @@
         <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4263,7 +4243,7 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4280,7 +4260,7 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4294,10 +4274,10 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4314,7 +4294,7 @@
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4331,7 +4311,7 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4348,7 +4328,7 @@
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4362,10 +4342,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4379,10 +4359,10 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4396,10 +4376,10 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -4413,10 +4393,10 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4433,7 +4413,7 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4447,10 +4427,10 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4464,10 +4444,10 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4481,10 +4461,10 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4501,7 +4481,7 @@
         <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4515,10 +4495,10 @@
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -4535,7 +4515,7 @@
         <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4543,16 +4523,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920429</v>
+        <v>18330051920329</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4560,16 +4540,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920329</v>
+        <v>18330051920333</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4577,16 +4557,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920333</v>
+        <v>18330051920334</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4594,13 +4574,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920334</v>
+        <v>18330051920337</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>114</v>
@@ -4611,16 +4591,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920337</v>
+        <v>18330051920426</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4628,16 +4608,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920426</v>
+        <v>18330051920427</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4645,30 +4625,30 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920427</v>
+        <v>18330051920315</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920315</v>
+        <v>18330051920317</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
@@ -4679,13 +4659,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920317</v>
+        <v>18330051920316</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
         <v>144</v>
@@ -4696,13 +4676,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18330051920316</v>
+        <v>18330051920327</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
@@ -4713,13 +4693,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18330051920327</v>
+        <v>18330051920429</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
         <v>146</v>
@@ -4733,10 +4713,10 @@
         <v>18330051920332</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
         <v>147</v>
@@ -4750,10 +4730,10 @@
         <v>18330051920335</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
@@ -4767,7 +4747,7 @@
         <v>18330051920344</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
@@ -4784,10 +4764,10 @@
         <v>18330051920350</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
@@ -4801,10 +4781,10 @@
         <v>18330051920349</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
         <v>151</v>
@@ -4821,7 +4801,7 @@
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
         <v>152</v>
@@ -4837,7 +4817,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4881,7 +4861,7 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -4904,7 +4884,7 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -4924,10 +4904,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -4947,10 +4927,10 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -4970,10 +4950,10 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -4993,10 +4973,10 @@
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5016,10 +4996,10 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5039,10 +5019,10 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -5062,10 +5042,10 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -5085,10 +5065,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -5108,10 +5088,10 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -5131,10 +5111,10 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -5148,22 +5128,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920429</v>
+        <v>18330051920333</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -5171,22 +5151,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920333</v>
+        <v>18330051920334</v>
       </c>
       <c r="B15" t="s">
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -5194,13 +5174,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920334</v>
+        <v>18330051920337</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>114</v>
@@ -5217,16 +5197,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920337</v>
+        <v>18330051920427</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -5235,29 +5215,6 @@
         <v>55</v>
       </c>
       <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920427</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6BLCM - Estadisticos 2020.xlsx
+++ b/grupos/6BLCM - Estadisticos 2020.xlsx
@@ -185,7 +185,7 @@
     <t>Por_Blancos</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>Ochoa Martínez Mayeli</t>
